--- a/biology/Zoologie/Geai_de_Woodhouse/Geai_de_Woodhouse.xlsx
+++ b/biology/Zoologie/Geai_de_Woodhouse/Geai_de_Woodhouse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aphelocoma woodhouseii
 Le Geai de Woodhouse (Aphelocoma woodhouseii) est une espèce d'oiseaux de la famille des Corvidae. Son nom est en hommage à Samuel Washington Woodhouse (1821-1904).
@@ -514,9 +526,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (8 février 2023)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (8 février 2023) :
 Aphelocoma woodhouseii subsp. cyanotis Ridgway, 1887
 Aphelocoma woodhouseii subsp. grisea Nelson, 1899
 Aphelocoma woodhouseii subsp. nevadae Pitelka, 1945
@@ -551,11 +565,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Aphelocoma woodhouseii (S.F.Baird, 1858)[2].
-L'espèce Aphelocoma woodhouseii a été décrite pour la première fois en 1858 par le naturaliste américain Spencer Fullerton Baird (1823-1887) sous le protonyme Cyanocitta woodhouseii[1],[3]
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Geai de Woodhouse[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Aphelocoma woodhouseii (S.F.Baird, 1858).
+L'espèce Aphelocoma woodhouseii a été décrite pour la première fois en 1858 par le naturaliste américain Spencer Fullerton Baird (1823-1887) sous le protonyme Cyanocitta woodhouseii,
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Geai de Woodhouse.
 </t>
         </is>
       </c>
@@ -584,7 +600,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Spencer F. Baird, « Birds », Reports of explorations and surveys to ascertain the most practicable and economical route for a Railroad from the Mississippi River to the Pacific Ocean, Washington, vol. 9,‎ 1858, p. 1-1005 (lire en ligne, consulté le 8 février 2023).</t>
         </is>
